--- a/biology/Botanique/Acaule/Acaule.xlsx
+++ b/biology/Botanique/Acaule/Acaule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une plante acaule  (du grec a-, élément privatif et kaulos, tige) est une plante dont les feuilles et les bourgeons semblent s'attacher directement au collet sans tige apparente[1]. Une plante acaulescente est à tige très courte, paraissant acaule[2]. L’acaulie, caractère d'une plante acaule, n'exclut pas l'existence d'une hampe florale.
-Les acaules portent généralement des feuilles plus ou moins étalées et disposées en rosette sur le sol, autour de l'inflorescence. La tige, très courte, existe mais elle est insignifiante et n'est pas apparente au-dessus du sol[3]. Ces plantes représentent le plus bas étage de végétation aérienne dans la classification de Raunkier (plantes hémicryptophytes), elles s'opposent aux buissonnantes et aux arborescentes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une plante acaule  (du grec a-, élément privatif et kaulos, tige) est une plante dont les feuilles et les bourgeons semblent s'attacher directement au collet sans tige apparente. Une plante acaulescente est à tige très courte, paraissant acaule. L’acaulie, caractère d'une plante acaule, n'exclut pas l'existence d'une hampe florale.
+Les acaules portent généralement des feuilles plus ou moins étalées et disposées en rosette sur le sol, autour de l'inflorescence. La tige, très courte, existe mais elle est insignifiante et n'est pas apparente au-dessus du sol. Ces plantes représentent le plus bas étage de végétation aérienne dans la classification de Raunkier (plantes hémicryptophytes), elles s'opposent aux buissonnantes et aux arborescentes.
 Le tussilage, le pissenlit et la primevère en sont des exemples très communs.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Carline acaule
 Cirse acaule
